--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>每回合多抽2张牌</t>
+  </si>
+  <si>
+    <t>火花</t>
+  </si>
+  <si>
+    <t>回合结束后造成1点火元素伤害</t>
+  </si>
+  <si>
+    <t>水之屏障</t>
+  </si>
+  <si>
+    <t>回合结束后造成3点水元素伤害</t>
+  </si>
+  <si>
+    <t>萤草</t>
+  </si>
+  <si>
+    <t>下回合多抽取2张牌</t>
+  </si>
+  <si>
+    <t>解放</t>
+  </si>
+  <si>
+    <t>下回合额外获得两点费用</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1072,8 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1257,9 +1281,20 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>3006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1272,9 +1307,20 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>3007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1287,9 +1333,20 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>3008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1303,12 +1360,20 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>3009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>并在该场战斗内敌人永远存在3001号Buff</t>
-  </si>
-  <si>
-    <t>落叶归根</t>
-  </si>
-  <si>
-    <t>每回合多抽2张牌</t>
   </si>
   <si>
     <t>火花</t>
@@ -1073,7 +1067,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C28" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1255,19 +1249,18 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>3005</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1291,7 +1284,7 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,9 +1310,9 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1334,13 +1327,14 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3008</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1"/>
@@ -1359,21 +1353,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>3009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="7:17">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E44E257-1444-41EA-A56C-AFCEA5EA243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -37,21 +43,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>imgPath</t>
-  </si>
-  <si>
     <t>Des</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>火元素</t>
   </si>
   <si>
@@ -86,12 +83,6 @@
   </si>
   <si>
     <t>并在该场战斗内敌人永远存在3001号Buff</t>
-  </si>
-  <si>
-    <t>落叶归根</t>
-  </si>
-  <si>
-    <t>每回合多抽2张牌</t>
   </si>
   <si>
     <t>火花</t>
@@ -121,358 +112,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -480,260 +141,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,77 +154,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00800080"/>
-      <color rgb="00000000"/>
+      <color rgb="FF800080"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1064,29 +430,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" customWidth="1"/>
     <col min="4" max="4" width="66.5" customWidth="1"/>
-    <col min="5" max="5" width="86.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,15 +465,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1119,21 +479,21 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1146,21 +506,21 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1173,21 +533,21 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1200,21 +560,21 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1227,21 +587,21 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1254,21 +614,21 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1281,20 +641,21 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>3006</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1307,20 +668,21 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>3007</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1333,20 +695,21 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3008</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1359,21 +722,9 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>3009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1386,12 +737,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1405,7 +756,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1424,7 +775,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1443,12 +794,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1462,7 +813,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1480,7 +831,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1499,7 +850,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1518,7 +869,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1537,7 +888,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1556,7 +907,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1575,7 +926,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1594,7 +945,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1613,7 +964,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1632,7 +983,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1652,41 +1003,38 @@
       <c r="Q25" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Assets/Excel/Buff.xlsx
+++ b/Assets/Excel/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E44E257-1444-41EA-A56C-AFCEA5EA243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766362E7-9E3A-4ACF-BB99-995CBCE27AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +442,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +489,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -513,7 +516,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -540,7 +543,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -560,14 +563,14 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -587,14 +590,14 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -614,14 +617,14 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3005</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -641,14 +644,14 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3006</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -668,14 +671,14 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3007</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -695,14 +698,14 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3008</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
